--- a/Front-End/assets/stateoptions.xlsx
+++ b/Front-End/assets/stateoptions.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="460" windowWidth="20820" windowHeight="14220" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14220" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="majors" sheetId="1" r:id="rId1"/>
+    <sheet name="minors" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="126">
   <si>
     <t>Africana Studies</t>
   </si>
@@ -339,16 +340,83 @@
   </si>
   <si>
     <t>52</t>
+  </si>
+  <si>
+    <t>Accounting and Financial Management</t>
+  </si>
+  <si>
+    <t>Bioethics</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Computational Medicine</t>
+  </si>
+  <si>
+    <t>Computer Integrated Surgery</t>
+  </si>
+  <si>
+    <t>Engineering for Sustainable Development</t>
+  </si>
+  <si>
+    <t>Entrepreneurship &amp; Management</t>
+  </si>
+  <si>
+    <t>Financial Economics</t>
+  </si>
+  <si>
+    <t>Islamic Studies</t>
+  </si>
+  <si>
+    <t>Jewish Studies</t>
+  </si>
+  <si>
+    <t>Linguistics</t>
+  </si>
+  <si>
+    <t>Marketing &amp; Communications</t>
+  </si>
+  <si>
+    <t>Museums &amp; Society</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Robotics</t>
+  </si>
+  <si>
+    <t>Social Policy</t>
+  </si>
+  <si>
+    <t>Space Science &amp; Engineering</t>
+  </si>
+  <si>
+    <t>Spanish for the Professions</t>
+  </si>
+  <si>
+    <t>Spanish Language &amp; Hispanic Culture</t>
+  </si>
+  <si>
+    <t>Theatre Arts &amp; Studies</t>
+  </si>
+  <si>
+    <t>Visual Arts</t>
+  </si>
+  <si>
+    <t>Women, Gender, and Sexuality</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="168" formatCode="&quot;value&quot;\:\ \'@\'\,"/>
-    <numFmt numFmtId="169" formatCode="&quot;text&quot;\:\ \'@\'\ \}\,"/>
-    <numFmt numFmtId="171" formatCode="\{\ &quot;key&quot;\:\ \'@\'\,"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="&quot;value&quot;\:\ \'@\'\,"/>
+    <numFmt numFmtId="165" formatCode="&quot;text&quot;\:\ \'@\'\ \}\,"/>
+    <numFmt numFmtId="166" formatCode="\{\ &quot;key&quot;\:\ \'@\'\,"/>
+    <numFmt numFmtId="168" formatCode="&quot;text&quot;\:\ \'@\'\}\,"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -384,17 +452,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C52" sqref="A1:C52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1260,4 +1330,560 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C46" sqref="A1:C46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="6"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="6"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="6"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="6"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="4"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="6"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Front-End/assets/stateoptions.xlsx
+++ b/Front-End/assets/stateoptions.xlsx
@@ -412,11 +412,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="&quot;value&quot;\:\ \'@\'\,"/>
-    <numFmt numFmtId="165" formatCode="&quot;text&quot;\:\ \'@\'\ \}\,"/>
-    <numFmt numFmtId="166" formatCode="\{\ &quot;key&quot;\:\ \'@\'\,"/>
-    <numFmt numFmtId="168" formatCode="&quot;text&quot;\:\ \'@\'\}\,"/>
+  <numFmts count="3">
+    <numFmt numFmtId="171" formatCode="\{\&quot;&quot;key&quot;\&quot;\:\ @\,"/>
+    <numFmt numFmtId="176" formatCode="\&quot;&quot;value&quot;\&quot;\:\ \&quot;@\&quot;\,"/>
+    <numFmt numFmtId="177" formatCode="\&quot;&quot;text&quot;\&quot;\:\ \&quot;@\&quot;\}\,"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -454,17 +453,17 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -745,585 +744,585 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="7" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1337,18 +1336,18 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C46" sqref="A1:C46"/>
+      <selection sqref="A1:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -1359,7 +1358,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -1370,7 +1369,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -1381,7 +1380,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -1392,7 +1391,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -1403,7 +1402,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -1414,7 +1413,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -1425,7 +1424,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1436,7 +1435,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -1447,7 +1446,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1458,7 +1457,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -1469,7 +1468,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1480,7 +1479,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -1491,7 +1490,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -1502,7 +1501,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -1513,7 +1512,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -1524,7 +1523,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B17" s="10" t="s">
@@ -1535,7 +1534,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -1546,7 +1545,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B19" s="10" t="s">
@@ -1557,7 +1556,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -1568,7 +1567,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -1579,7 +1578,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -1590,7 +1589,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -1601,7 +1600,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -1612,7 +1611,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B25" s="10" t="s">
@@ -1623,7 +1622,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B26" s="10" t="s">
@@ -1634,7 +1633,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B27" s="10" t="s">
@@ -1645,7 +1644,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B28" s="10" t="s">
@@ -1656,7 +1655,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B29" s="10" t="s">
@@ -1667,7 +1666,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B30" s="10" t="s">
@@ -1678,7 +1677,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -1689,7 +1688,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -1700,7 +1699,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B33" s="10" t="s">
@@ -1711,7 +1710,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B34" s="10" t="s">
@@ -1722,7 +1721,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B35" s="10" t="s">
@@ -1733,7 +1732,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B36" s="10" t="s">
@@ -1744,7 +1743,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B37" s="10" t="s">
@@ -1755,7 +1754,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B38" s="10" t="s">
@@ -1766,7 +1765,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B39" s="10" t="s">
@@ -1777,7 +1776,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B40" s="10" t="s">
@@ -1788,7 +1787,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B41" s="10" t="s">
@@ -1799,7 +1798,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B42" s="10" t="s">
@@ -1810,7 +1809,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B43" s="10" t="s">
@@ -1821,7 +1820,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B44" s="10" t="s">
@@ -1832,7 +1831,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B45" s="10" t="s">
@@ -1843,7 +1842,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B46" s="10" t="s">
@@ -1854,34 +1853,34 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="4"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="6"/>
+      <c r="A47" s="1"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="7"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="4"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="6"/>
+      <c r="A48" s="1"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="7"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="4"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="6"/>
+      <c r="A49" s="1"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="7"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="6"/>
+      <c r="A50" s="1"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="7"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="4"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="6"/>
+      <c r="A51" s="1"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="7"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="4"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="6"/>
+      <c r="A52" s="1"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Front-End/assets/stateoptions.xlsx
+++ b/Front-End/assets/stateoptions.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14220" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14820" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="majors" sheetId="1" r:id="rId1"/>
     <sheet name="minors" sheetId="3" r:id="rId2"/>
+    <sheet name="courses" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="172">
   <si>
     <t>Africana Studies</t>
   </si>
@@ -406,18 +407,161 @@
   </si>
   <si>
     <t>Women, Gender, and Sexuality</t>
+  </si>
+  <si>
+    <t>AS.110.108</t>
+  </si>
+  <si>
+    <t>Calculus I</t>
+  </si>
+  <si>
+    <t>AS.110.109</t>
+  </si>
+  <si>
+    <t>Calculus II (For Physical Sciences and Engineering)</t>
+  </si>
+  <si>
+    <t>AS.110.202</t>
+  </si>
+  <si>
+    <t>Calculus III</t>
+  </si>
+  <si>
+    <t>AS.110.302</t>
+  </si>
+  <si>
+    <t>Differential Equations and Applications</t>
+  </si>
+  <si>
+    <t>AS.110.201</t>
+  </si>
+  <si>
+    <t>Linear Algebra</t>
+  </si>
+  <si>
+    <t>AS.171.105</t>
+  </si>
+  <si>
+    <t>Classical Mechanics I</t>
+  </si>
+  <si>
+    <t>AS.173.115</t>
+  </si>
+  <si>
+    <t>Classical Mechanics Laboratory</t>
+  </si>
+  <si>
+    <t>AS.171.106</t>
+  </si>
+  <si>
+    <t>Electricity and Magnetism I</t>
+  </si>
+  <si>
+    <t>AS.173.116</t>
+  </si>
+  <si>
+    <t>Electricity and Magnetism Laboratory</t>
+  </si>
+  <si>
+    <t>AS.171.201</t>
+  </si>
+  <si>
+    <t>Special Relativity/Waves</t>
+  </si>
+  <si>
+    <t>or AS.171.309</t>
+  </si>
+  <si>
+    <t>&amp; AS.171.207</t>
+  </si>
+  <si>
+    <t>Wave Phenomena with Biophysical Application</t>
+  </si>
+  <si>
+    <t>and Special Relativity</t>
+  </si>
+  <si>
+    <t>AS.172.203</t>
+  </si>
+  <si>
+    <t>Contemporary Physics Seminar</t>
+  </si>
+  <si>
+    <t>AS.171.202</t>
+  </si>
+  <si>
+    <t>Modern Physics</t>
+  </si>
+  <si>
+    <t>or AS.171.310</t>
+  </si>
+  <si>
+    <t>Biological Physics</t>
+  </si>
+  <si>
+    <t>AS.171.204</t>
+  </si>
+  <si>
+    <t>Classical Mechanics II</t>
+  </si>
+  <si>
+    <t>AS.171.301</t>
+  </si>
+  <si>
+    <t>Electromagnetic Theory II</t>
+  </si>
+  <si>
+    <t>AS.171.303</t>
+  </si>
+  <si>
+    <t>Quantum Mechanics I</t>
+  </si>
+  <si>
+    <t>AS.171.304</t>
+  </si>
+  <si>
+    <t>Quantum Mechanics II</t>
+  </si>
+  <si>
+    <t>or AS.171.312</t>
+  </si>
+  <si>
+    <t>Statistical Physics/Thermodynamics</t>
+  </si>
+  <si>
+    <t>AS.173.308</t>
+  </si>
+  <si>
+    <t>Advanced Physics Laboratory</t>
+  </si>
+  <si>
+    <t>OPTIONS</t>
+  </si>
+  <si>
+    <t>B.S. in Physics Degree</t>
+  </si>
+  <si>
+    <t>Five (5) additional courses (at least 3 credits each) at the 200-600 level in the following departments: Physics and Astronomy, Biology, Biophysics, Chemistry, Cognitive Science, Earth and Planetary Sciences, Mathematics, and/or the School of Engineering (excluding courses listed as 500.xxx, 660.xxx, 551.xxx and 661.xxx). These courses must constitute a coherent and rigorous program of study approved by the Departmental Advisor and Director of Undergraduate Studies no later than the registration period for the fall semester of the senior year. At least four (4) of these courses must be taken in a single department in the Krieger School of Arts and Sciences or within a single department or program in the Whiting School of Engineering (note: called "Department elective" in the above Sample Program of Study).  One (1) semester of research may be used as one elective. </t>
+  </si>
+  <si>
+    <t>department numbers are respectively as follows: physics 110, biology 020, biophysics 250, chemistry 030, cognitive science 050, earth and planetary 270, mathematics 110. school of engineering (except 500, 660, 551, 661). 4 courses in one of 7 listed departments + engineering; one elective in any of four departments. we'll have to treat engineering as several distinct departments.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="171" formatCode="\{\&quot;&quot;key&quot;\&quot;\:\ @\,"/>
-    <numFmt numFmtId="176" formatCode="\&quot;&quot;value&quot;\&quot;\:\ \&quot;@\&quot;\,"/>
-    <numFmt numFmtId="177" formatCode="\&quot;&quot;text&quot;\&quot;\:\ \&quot;@\&quot;\}\,"/>
+  <numFmts count="8">
+    <numFmt numFmtId="164" formatCode="\{\&quot;&quot;key&quot;\&quot;\:\ @\,"/>
+    <numFmt numFmtId="165" formatCode="\&quot;&quot;value&quot;\&quot;\:\ \&quot;@\&quot;\,"/>
+    <numFmt numFmtId="166" formatCode="\&quot;&quot;text&quot;\&quot;\:\ \&quot;@\&quot;\}\,"/>
+    <numFmt numFmtId="169" formatCode="\&quot;&quot;credits&quot;\&quot;\:\ @\}\,"/>
+    <numFmt numFmtId="171" formatCode="\&quot;&quot;title&quot;\&quot;\:\ \&quot;@\&quot;\,"/>
+    <numFmt numFmtId="172" formatCode="\{\&quot;&quot;id&quot;\&quot;\:\ \&quot;@\&quot;\,"/>
+    <numFmt numFmtId="173" formatCode="\{\&quot;&quot;id&quot;\&quot;\:\&quot;@\&quot;\,"/>
+    <numFmt numFmtId="174" formatCode="\&quot;&quot;title&quot;\&quot;\:\&quot;@\&quot;\,"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -429,6 +573,24 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color rgb="FF003B5D"/>
+      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="2">
@@ -451,19 +613,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1335,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1885,4 +2061,255 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="16"/>
+    <col min="4" max="4" width="55.1640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="32" style="16" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E6" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="D16" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" ht="288" x14ac:dyDescent="0.2">
+      <c r="D17" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Front-End/assets/stateoptions.xlsx
+++ b/Front-End/assets/stateoptions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14820" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="majors" sheetId="1" r:id="rId1"/>
@@ -919,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2067,8 +2067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
